--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>PMD</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Le Plugin Eclipse-PMD permet de désactiver certaines règles. Comment échanger le fichier de règles actives résultant entre plusieurs Eclipse ?</t>
-  </si>
-  <si>
     <t>Comment s'échanger les règles de PMD ?</t>
   </si>
   <si>
@@ -53,18 +50,9 @@
     <t>Comment imposer le jdk1.8.0_144 dans les projets Maven sous Eclipse ?</t>
   </si>
   <si>
-    <t>Lorsque l'on relance un install Maven, la JRE devient JavaSE-1.8. Comment indiquer une foispour toutes que Maven (ou Eclipse) doit garder le jdk1.8.0_144 ?</t>
-  </si>
-  <si>
     <t>Initialisation de l'application</t>
   </si>
   <si>
-    <t>Quelle stratégie adopter pour l'initialisation de l'application</t>
-  </si>
-  <si>
-    <t>Des tables (années d'exploitation, départements, DIR, …) doivent être remplies lors de l'initialisation de l'application après installationpar le centre serveur. Quelle stratégie adopter pour l'initialisation ?</t>
-  </si>
-  <si>
     <t>Maven</t>
   </si>
   <si>
@@ -81,13 +69,71 @@
   </si>
   <si>
     <t>D:\Donnees\eclipse\eclipseworkspace_neon\.metadata\.plugins\org.eclipse.wst.server.core\tmp0\wtpwebapps</t>
+  </si>
+  <si>
+    <t>Quelle stratégie adopter pour l'initialisation de l'application ?</t>
+  </si>
+  <si>
+    <t>Des tables (années d'exploitation, départements, DIR, …) doivent être remplies lors de l'initialisation de l'application après installation par le centre serveur. Quelle stratégie adopter pour l'initialisation ?</t>
+  </si>
+  <si>
+    <t>Requêtes SQL</t>
+  </si>
+  <si>
+    <t>- Oui, l'archétype maven-archetype-webapp convient pour toutes les applications Web Ministère.
+- Recopier la structure de l'archétype Maven à la place de la structure générée par eGit</t>
+  </si>
+  <si>
+    <t>Compte-tenu des contraintes des applications du Ministère (war à fournir au centre serveur qui déploie sur son propre Tomcat, authentification via le filtre Cerbere, ….), peut-on quand même utiliser SpringBoot et SpringData ?</t>
+  </si>
+  <si>
+    <t>Le Plugin Eclipse-PMD permet de désactiver certaines règles. Comment échanger le fichier de règles actives/désactivées résultant entre plusieurs Eclipse ?</t>
+  </si>
+  <si>
+    <t>Lorsque l'on relance un install Maven, la JRE devient JavaSE-1.8 en lieu et place de jdk1.8.0_144. Comment indiquer une fois pour toutes que Maven (ou Eclipse) doit garder le jdk1.8.0_144 (et pas le JavaSE-1.8) ?</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>Quelle stratégie adopter pour la gestion des exceptions ?</t>
+  </si>
+  <si>
+    <t>Comment remonter des messages "humains" à l'IHM en gérant les exceptions levées dans l'application ?</t>
+  </si>
+  <si>
+    <t>Quelle stratégie adopter pour la gestion des exceptions provenant de la Base de Données ?</t>
+  </si>
+  <si>
+    <r>
+      <t>Un message du type de : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2017-08-18 11:04:28 [main] ERROR SqlExceptionHelper:131 - ERREUR: la valeur d'une clé dupliquée rompt la contrainte unique « unique_nom_prenom »
+  Détail : La clé « (nom, prenom)=(gallagher, Rory) » existe déjà.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" lancé par Hibernate est intéressant si on le transforme pour l'adapter à l'IHM et l'utilisateur. Comment faire ?</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -106,6 +152,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -164,6 +216,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,7 +538,7 @@
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -498,16 +553,16 @@
   <sheetData>
     <row r="2" spans="2:5" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -515,69 +570,87 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
+    <row r="8" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
+    <row r="9" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -656,7 +729,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="5"/>
     </row>

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>PMD</t>
   </si>
@@ -128,11 +128,29 @@
       <t>" lancé par Hibernate est intéressant si on le transforme pour l'adapter à l'IHM et l'utilisateur. Comment faire ?</t>
     </r>
   </si>
+  <si>
+    <t>Typer les Exceptions
+Toute la logique métier throw les Exceptions jusqu' aux contrôleurs chargés de transmettre à la vue (messages des exceptions humanisés pour les utilisateurs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exporter ou importer : \Workspace\.metadata\.plugins\net.sourceforge.pmd.eclipse.plugin\ruleset.xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;plugin&gt;
+   &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
+   &lt;artifactId&gt;maven-compiler-plugin&lt;/artifactId&gt;
+   &lt;configuration&gt;
+      &lt;source&gt;1.8&lt;/source&gt;
+      &lt;target&gt;1.8&lt;/target&gt;
+   &lt;/configuration&gt;
+&lt;/plugin&gt; 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -534,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -575,9 +593,11 @@
       <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -587,7 +607,9 @@
       <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -629,7 +651,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
@@ -639,7 +661,9 @@
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>PMD</t>
   </si>
@@ -136,7 +136,8 @@
     <t xml:space="preserve">Exporter ou importer : \Workspace\.metadata\.plugins\net.sourceforge.pmd.eclipse.plugin\ruleset.xml </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;plugin&gt;
+    <t xml:space="preserve">
+&lt;plugin&gt;
    &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
    &lt;artifactId&gt;maven-compiler-plugin&lt;/artifactId&gt;
    &lt;configuration&gt;
@@ -145,6 +146,34 @@
    &lt;/configuration&gt;
 &lt;/plugin&gt; 
 </t>
+  </si>
+  <si>
+    <t>Choix du HTML</t>
+  </si>
+  <si>
+    <t>Faut-il choisir HTML5 ou XHTML1.0 Transitional dans les jsp ?</t>
+  </si>
+  <si>
+    <t>Log4j2.xml</t>
+  </si>
+  <si>
+    <t>A quoi sert et comment utiliser le Log4j2.xml ?</t>
+  </si>
+  <si>
+    <t>Apparemment, Tomcat utilise un Log4j2.xml. Pourquoi ? (pas un simple Log4j.properties),
+Pourrais-je voir un exemple de Log4j2.xml bien implémenté ?</t>
+  </si>
+  <si>
+    <t>Test d'un controller Servlet</t>
+  </si>
+  <si>
+    <t>Comment implémenter une org.apache….Request (héritant de HttpServletRequest) pour tester une méthode doGet(….) d'un controller Servlet ?</t>
+  </si>
+  <si>
+    <t>Il pourrait être intéressant de tester un controller Servlet sans lancer l'appli web et donc Tomcat. Or, le conteneur de Servlet Tomcat fournit les HttpServletRequest et HttpServletResponse à passer aux méthodes doHead, doGet et doPost du controller Servlet. Comment instancier une HttpServletRequest dans un test unitaire JUnit en lui passant des paramètres ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACAI préconise l'utilisation de </t>
   </si>
 </sst>
 </file>
@@ -553,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -597,7 +626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -611,88 +640,106 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
+    <row r="11" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
+    <row r="12" spans="2:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -752,10 +799,16 @@
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\git\traficweb_maven\questions_a_traiter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>PMD</t>
   </si>
@@ -175,11 +170,27 @@
   <si>
     <t xml:space="preserve">ACAI préconise l'utilisation de </t>
   </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Html5 avec doctype Html</t>
+  </si>
+  <si>
+    <t>Juste un fichier de config simplifié, log4j.properties semble plus lisible pour des config de log simple.
+Possibilité de loger directement dans le bdd par config.(apender)</t>
+  </si>
+  <si>
+    <t>Donc pas de spring boot, l'utilité est restreinte et la génération du war peut gêner des incompatibilités avec le tomvat de prod.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -207,12 +218,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -242,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -266,6 +283,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -574,18 +594,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -650,7 +670,9 @@
       <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
@@ -690,7 +712,9 @@
       <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
@@ -716,7 +740,9 @@
       <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
@@ -728,7 +754,9 @@
       <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -740,7 +768,9 @@
       <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>PMD</t>
   </si>
@@ -174,6 +174,16 @@
   </si>
   <si>
     <t xml:space="preserve">ACAI préconise l'utilisation de </t>
+  </si>
+  <si>
+    <t>Fil d'ariane</t>
+  </si>
+  <si>
+    <t>Comment implémenter un fil d'ariane dans l'application (breadcrumbs) ?</t>
+  </si>
+  <si>
+    <t>Un fil d'ariane est utile pour l'utilisateur en haut de chaque jsp.
+Comment implémenter ce fil d'ariane avec Springweb mvc ?</t>
   </si>
 </sst>
 </file>
@@ -584,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -742,10 +752,16 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
+    <row r="13" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\git\traficweb_maven\questions_a_traiter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>PMD</t>
   </si>
@@ -176,20 +171,26 @@
     <t xml:space="preserve">ACAI préconise l'utilisation de </t>
   </si>
   <si>
-    <t>Fil d'ariane</t>
-  </si>
-  <si>
-    <t>Comment implémenter un fil d'ariane dans l'application (breadcrumbs) ?</t>
-  </si>
-  <si>
-    <t>Un fil d'ariane est utile pour l'utilisateur en haut de chaque jsp.
-Comment implémenter ce fil d'ariane avec Springweb mvc ?</t>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Html5 avec doctype Html</t>
+  </si>
+  <si>
+    <t>Juste un fichier de config simplifié, log4j.properties semble plus lisible pour des config de log simple.
+Possibilité de loger directement dans le bdd par config.(apender)</t>
+  </si>
+  <si>
+    <t>Donc pas de spring boot, l'utilité est restreinte et la génération du war peut gêner des incompatibilités avec le tomvat de prod.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -217,12 +218,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -252,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -276,6 +283,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,18 +594,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -660,7 +670,9 @@
       <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
@@ -700,7 +712,9 @@
       <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
@@ -726,7 +740,9 @@
       <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
@@ -738,7 +754,9 @@
       <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -750,18 +768,14 @@
       <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>41</v>
-      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -171,9 +171,6 @@
     <t xml:space="preserve">ACAI préconise l'utilisation de </t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>Donc pas de spring boot, l'utilité est restreinte et la génération du war peut gêner des incompatibilités avec le tomvat de prod.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test intégré avec Selenium ou test unitaire avec mokito </t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -671,7 +671,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\git\traficweb_maven\questions_a_traiter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>PMD</t>
   </si>
@@ -174,9 +179,6 @@
     <t>Selenium</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Html5 avec doctype Html</t>
   </si>
   <si>
@@ -185,12 +187,25 @@
   </si>
   <si>
     <t>Donc pas de spring boot, l'utilité est restreinte et la génération du war peut gêner des incompatibilités avec le tomvat de prod.</t>
+  </si>
+  <si>
+    <t>Fil d'Ariane</t>
+  </si>
+  <si>
+    <t>Comment implémenter un fil d'Ariane dans l'application</t>
+  </si>
+  <si>
+    <t>Il peut être intéressant pour les internautes d'implémenter un fil d'ariane en haut de chaque jsp.
+Comment implémenter un fil d'Ariane avec Springweb mvc ?</t>
+  </si>
+  <si>
+    <t>Gestion des exceptions de base de données (serveur de BD éteint, BD inexistante, table inexistante, Doublon dans une base, ….) comme je l'ai déjà fait</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -594,18 +609,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -671,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -713,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -741,7 +756,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -755,7 +770,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -772,10 +787,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
+    <row r="13" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>PMD</t>
   </si>
@@ -171,9 +171,6 @@
     <t xml:space="preserve">ACAI préconise l'utilisation de </t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Html5 avec doctype Html</t>
   </si>
   <si>
@@ -182,6 +179,19 @@
   </si>
   <si>
     <t>Donc pas de spring boot, l'utilité est restreinte et la génération du war peut gêner des incompatibilités avec le tomvat de prod.</t>
+  </si>
+  <si>
+    <t>Fil d'Ariane</t>
+  </si>
+  <si>
+    <t>Comment implémenter un fil d'Ariane dans l'application</t>
+  </si>
+  <si>
+    <t>Il peut être intéressant pour les internautes d'implémenter un fil d'ariane en haut de chaque jsp.
+Comment implémenter un fil d'Ariane avec Springweb mvc ?</t>
+  </si>
+  <si>
+    <t>Gestion des exceptions de base de données (serveur de BD éteint, BD inexistante, table inexistante, Doublon dans une base, ….) comme je l'ai déjà fait</t>
   </si>
   <si>
     <t xml:space="preserve">Test intégré avec Selenium ou test unitaire avec mokito </t>
@@ -594,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,7 +615,7 @@
   <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -671,7 +681,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -713,7 +723,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -741,7 +751,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -755,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -769,13 +779,19 @@
         <v>37</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\git\traficweb_maven\questions_a_traiter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -176,9 +171,6 @@
     <t xml:space="preserve">ACAI préconise l'utilisation de </t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
     <t>Html5 avec doctype Html</t>
   </si>
   <si>
@@ -200,12 +192,15 @@
   </si>
   <si>
     <t>Gestion des exceptions de base de données (serveur de BD éteint, BD inexistante, table inexistante, Doublon dans une base, ….) comme je l'ai déjà fait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test intégré avec Selenium ou test unitaire avec mokito </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -609,18 +604,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -686,7 +681,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -728,7 +723,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -756,7 +751,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -770,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -784,18 +779,18 @@
         <v>37</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E13" s="5"/>
     </row>

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Donnees\eclipse\eclipseworkspace_neon\traficweb_maven\questions_a_traiter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>PMD</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>Comment s'échanger les règles de PMD ?</t>
@@ -178,9 +181,6 @@
 Possibilité de loger directement dans le bdd par config.(apender)</t>
   </si>
   <si>
-    <t>Donc pas de spring boot, l'utilité est restreinte et la génération du war peut gêner des incompatibilités avec le tomvat de prod.</t>
-  </si>
-  <si>
     <t>Fil d'Ariane</t>
   </si>
   <si>
@@ -195,13 +195,90 @@
   </si>
   <si>
     <t xml:space="preserve">Test intégré avec Selenium ou test unitaire avec mokito </t>
+  </si>
+  <si>
+    <t>Remarques</t>
+  </si>
+  <si>
+    <t>KO - NE FONCTIONNE PAS.
+Cf mon mail du 04/09/2017 à 10h31</t>
+  </si>
+  <si>
+    <t>Donc pas de spring boot, l'utilité est restreinte et la génération du war peut gêner des incompatibilités avec le tomcat de prod.</t>
+  </si>
+  <si>
+    <t>Je croyais que nous avions décider de regarder si il était possible de :
+- Utiliser quand même SpringBoot pour le cas où l'on voudrait fournir des distributions complètes (avec Tomcat embarqué),
+- Voir si on pouvait paramétrer SpringBoot de sorte à pouvoir sortir Tomcat du livrable si le centre serveur le souhaitait.
+Ainsi, nous couvrions tous les cas de figure.</t>
+  </si>
+  <si>
+    <t>KO - NE FONCTIONNE PAS.
+J'ai exporté le ruleset.xml depuis \Workspace\.metadata\.plugins\net.sourceforge.pmd.eclipse.plugin\ruleset.xml sur ma machine et l'ai copié au même endroit dans un même Eclipse Neon 3 sur une autre machine.
+Je n'ai pas récupéré les règles et leur état d'activation après avoir fait "importer un nouvel ensemble de règles".
+Cf mon mail du 06/09/2017 12:18</t>
+  </si>
+  <si>
+    <t>Extrêmement intéressant. A CREUSER.</t>
+  </si>
+  <si>
+    <t>J'ai besoin de plus d'explications. Quand faut-il fournir un Log4j2.xml ? A CREUSER.</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Comment bien paramétrer les projets Eclipse afin d'en simplifier l'échange ?</t>
+  </si>
+  <si>
+    <t>On rencontre de nombreux problèmes lors de l'échange de projets Eclipse :
+- Encodage des messages dans la console défectueux.
+- Paramétrage compliqué du projet chez le destinataire avant de pouvoir faire fonctionner le projet.
+Comment bien paramétrer les projets pour simplifier l'installation du projet chez le destinataire ?</t>
+  </si>
+  <si>
+    <t>Description de la question</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fixer l'encodage du projet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Click droit projet &gt; Propriétés &gt; Resources &gt; Text File Encoding : other ----&gt; UTF-8 et New Text File Line Delimiter : other -----&gt; Windows
+A POURSUIVRE</t>
+    </r>
+  </si>
+  <si>
+    <t>servlet-api</t>
+  </si>
+  <si>
+    <t>Quelle stratégie adopter concernant servlet-api.jar dans les projets web Eclipse ?</t>
+  </si>
+  <si>
+    <t>Un projet web avec Servlets a besoin de servlet-api.jar pour fonctionner. Or, le conteneur de Servlet (Tomcat) fournit ce jar.
+Du coup, si on ne fournit pas la librairie servlet-api.jar dans un projet Eclipse, le destinataire verra des erreurs dans son projet Eclipse tant qu'il n'y aura pas importé les librairies de Tomcat.
+Inversement, si on fournit cette librairie et que l'on s'appuie sur la librairie fournie pour écrire les Servlets, quelle sera la librairie servlet-api.jar réellement utilisée lors du déploiement en centre serveur ? Celle du Tomcat du centre serveur ? La librairie fournie ?
+Quelle stratégie adopter concernant servlet-api.jar ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -227,8 +304,34 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +341,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -292,10 +407,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -604,18 +734,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -624,237 +754,299 @@
     <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="103" style="1" customWidth="1"/>
-    <col min="5" max="5" width="80.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="6" width="80.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="F5" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -134,6 +134,125 @@
     <t xml:space="preserve">Exporter ou importer : \Workspace\.metadata\.plugins\net.sourceforge.pmd.eclipse.plugin\ruleset.xml </t>
   </si>
   <si>
+    <t>Choix du HTML</t>
+  </si>
+  <si>
+    <t>Faut-il choisir HTML5 ou XHTML1.0 Transitional dans les jsp ?</t>
+  </si>
+  <si>
+    <t>Log4j2.xml</t>
+  </si>
+  <si>
+    <t>A quoi sert et comment utiliser le Log4j2.xml ?</t>
+  </si>
+  <si>
+    <t>Apparemment, Tomcat utilise un Log4j2.xml. Pourquoi ? (pas un simple Log4j.properties),
+Pourrais-je voir un exemple de Log4j2.xml bien implémenté ?</t>
+  </si>
+  <si>
+    <t>Test d'un controller Servlet</t>
+  </si>
+  <si>
+    <t>Comment implémenter une org.apache….Request (héritant de HttpServletRequest) pour tester une méthode doGet(….) d'un controller Servlet ?</t>
+  </si>
+  <si>
+    <t>Il pourrait être intéressant de tester un controller Servlet sans lancer l'appli web et donc Tomcat. Or, le conteneur de Servlet Tomcat fournit les HttpServletRequest et HttpServletResponse à passer aux méthodes doHead, doGet et doPost du controller Servlet. Comment instancier une HttpServletRequest dans un test unitaire JUnit en lui passant des paramètres ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACAI préconise l'utilisation de </t>
+  </si>
+  <si>
+    <t>Html5 avec doctype Html</t>
+  </si>
+  <si>
+    <t>Juste un fichier de config simplifié, log4j.properties semble plus lisible pour des config de log simple.
+Possibilité de loger directement dans le bdd par config.(apender)</t>
+  </si>
+  <si>
+    <t>Fil d'Ariane</t>
+  </si>
+  <si>
+    <t>Comment implémenter un fil d'Ariane dans l'application</t>
+  </si>
+  <si>
+    <t>Il peut être intéressant pour les internautes d'implémenter un fil d'ariane en haut de chaque jsp.
+Comment implémenter un fil d'Ariane avec Springweb mvc ?</t>
+  </si>
+  <si>
+    <t>Gestion des exceptions de base de données (serveur de BD éteint, BD inexistante, table inexistante, Doublon dans une base, ….) comme je l'ai déjà fait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test intégré avec Selenium ou test unitaire avec mokito </t>
+  </si>
+  <si>
+    <t>Remarques</t>
+  </si>
+  <si>
+    <t>Donc pas de spring boot, l'utilité est restreinte et la génération du war peut gêner des incompatibilités avec le tomcat de prod.</t>
+  </si>
+  <si>
+    <t>KO - NE FONCTIONNE PAS.
+J'ai exporté le ruleset.xml depuis \Workspace\.metadata\.plugins\net.sourceforge.pmd.eclipse.plugin\ruleset.xml sur ma machine et l'ai copié au même endroit dans un même Eclipse Neon 3 sur une autre machine.
+Je n'ai pas récupéré les règles et leur état d'activation après avoir fait "importer un nouvel ensemble de règles".
+Cf mon mail du 06/09/2017 12:18</t>
+  </si>
+  <si>
+    <t>Extrêmement intéressant. A CREUSER.</t>
+  </si>
+  <si>
+    <t>J'ai besoin de plus d'explications. Quand faut-il fournir un Log4j2.xml ? A CREUSER.</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Comment bien paramétrer les projets Eclipse afin d'en simplifier l'échange ?</t>
+  </si>
+  <si>
+    <t>On rencontre de nombreux problèmes lors de l'échange de projets Eclipse :
+- Encodage des messages dans la console défectueux.
+- Paramétrage compliqué du projet chez le destinataire avant de pouvoir faire fonctionner le projet.
+Comment bien paramétrer les projets pour simplifier l'installation du projet chez le destinataire ?</t>
+  </si>
+  <si>
+    <t>Description de la question</t>
+  </si>
+  <si>
+    <t>servlet-api</t>
+  </si>
+  <si>
+    <t>Quelle stratégie adopter concernant servlet-api.jar dans les projets web Eclipse ?</t>
+  </si>
+  <si>
+    <t>Un projet web avec Servlets a besoin de servlet-api.jar pour fonctionner. Or, le conteneur de Servlet (Tomcat) fournit ce jar.
+Du coup, si on ne fournit pas la librairie servlet-api.jar dans un projet Eclipse, le destinataire verra des erreurs dans son projet Eclipse tant qu'il n'y aura pas importé les librairies de Tomcat.
+Inversement, si on fournit cette librairie et que l'on s'appuie sur la librairie fournie pour écrire les Servlets, quelle sera la librairie servlet-api.jar réellement utilisée lors du déploiement en centre serveur ? Celle du Tomcat du centre serveur ? La librairie fournie ?
+Quelle stratégie adopter concernant servlet-api.jar ?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Fixer l'encodage du projet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Click droit projet &gt; Propriétés &gt; Resources &gt; Text File Encoding : other ----&gt; UTF-8 et New Text File Line Delimiter : other -----&gt; Windows
+ - Mettre les mêmes noms dans Windows &gt; Preferences &gt; Java &gt; Installed JRE &gt; …. Sur toutes les machines
+ - Mettre les mêmes noms dans Windows &gt; Preferences &gt; Servers &gt;RunTime Environment &gt; …. Sur toutes les machines</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">
 &lt;plugin&gt;
    &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
@@ -143,142 +262,24 @@
       &lt;target&gt;1.8&lt;/target&gt;
    &lt;/configuration&gt;
 &lt;/plugin&gt; 
-</t>
-  </si>
-  <si>
-    <t>Choix du HTML</t>
-  </si>
-  <si>
-    <t>Faut-il choisir HTML5 ou XHTML1.0 Transitional dans les jsp ?</t>
-  </si>
-  <si>
-    <t>Log4j2.xml</t>
-  </si>
-  <si>
-    <t>A quoi sert et comment utiliser le Log4j2.xml ?</t>
-  </si>
-  <si>
-    <t>Apparemment, Tomcat utilise un Log4j2.xml. Pourquoi ? (pas un simple Log4j.properties),
-Pourrais-je voir un exemple de Log4j2.xml bien implémenté ?</t>
-  </si>
-  <si>
-    <t>Test d'un controller Servlet</t>
-  </si>
-  <si>
-    <t>Comment implémenter une org.apache….Request (héritant de HttpServletRequest) pour tester une méthode doGet(….) d'un controller Servlet ?</t>
-  </si>
-  <si>
-    <t>Il pourrait être intéressant de tester un controller Servlet sans lancer l'appli web et donc Tomcat. Or, le conteneur de Servlet Tomcat fournit les HttpServletRequest et HttpServletResponse à passer aux méthodes doHead, doGet et doPost du controller Servlet. Comment instancier une HttpServletRequest dans un test unitaire JUnit en lui passant des paramètres ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACAI préconise l'utilisation de </t>
-  </si>
-  <si>
-    <t>Html5 avec doctype Html</t>
-  </si>
-  <si>
-    <t>Juste un fichier de config simplifié, log4j.properties semble plus lisible pour des config de log simple.
-Possibilité de loger directement dans le bdd par config.(apender)</t>
-  </si>
-  <si>
-    <t>Fil d'Ariane</t>
-  </si>
-  <si>
-    <t>Comment implémenter un fil d'Ariane dans l'application</t>
-  </si>
-  <si>
-    <t>Il peut être intéressant pour les internautes d'implémenter un fil d'ariane en haut de chaque jsp.
-Comment implémenter un fil d'Ariane avec Springweb mvc ?</t>
-  </si>
-  <si>
-    <t>Gestion des exceptions de base de données (serveur de BD éteint, BD inexistante, table inexistante, Doublon dans une base, ….) comme je l'ai déjà fait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test intégré avec Selenium ou test unitaire avec mokito </t>
-  </si>
-  <si>
-    <t>Remarques</t>
-  </si>
-  <si>
-    <t>KO - NE FONCTIONNE PAS.
-Cf mon mail du 04/09/2017 à 10h31</t>
-  </si>
-  <si>
-    <t>Donc pas de spring boot, l'utilité est restreinte et la génération du war peut gêner des incompatibilités avec le tomcat de prod.</t>
-  </si>
-  <si>
-    <t>Je croyais que nous avions décider de regarder si il était possible de :
+Pour un projet Maven, Run Maven &gt; Build… &gt; goal : eclipse:eclipse</t>
+  </si>
+  <si>
+    <t>DUALMODE : Je croyais que nous avions décider de regarder si il était possible de :
 - Utiliser quand même SpringBoot pour le cas où l'on voudrait fournir des distributions complètes (avec Tomcat embarqué),
 - Voir si on pouvait paramétrer SpringBoot de sorte à pouvoir sortir Tomcat du livrable si le centre serveur le souhaitait.
 Ainsi, nous couvrions tous les cas de figure.</t>
   </si>
   <si>
-    <t>KO - NE FONCTIONNE PAS.
-J'ai exporté le ruleset.xml depuis \Workspace\.metadata\.plugins\net.sourceforge.pmd.eclipse.plugin\ruleset.xml sur ma machine et l'ai copié au même endroit dans un même Eclipse Neon 3 sur une autre machine.
-Je n'ai pas récupéré les règles et leur état d'activation après avoir fait "importer un nouvel ensemble de règles".
-Cf mon mail du 06/09/2017 12:18</t>
-  </si>
-  <si>
-    <t>Extrêmement intéressant. A CREUSER.</t>
-  </si>
-  <si>
-    <t>J'ai besoin de plus d'explications. Quand faut-il fournir un Log4j2.xml ? A CREUSER.</t>
-  </si>
-  <si>
-    <t>Eclipse</t>
-  </si>
-  <si>
-    <t>Comment bien paramétrer les projets Eclipse afin d'en simplifier l'échange ?</t>
-  </si>
-  <si>
-    <t>On rencontre de nombreux problèmes lors de l'échange de projets Eclipse :
-- Encodage des messages dans la console défectueux.
-- Paramétrage compliqué du projet chez le destinataire avant de pouvoir faire fonctionner le projet.
-Comment bien paramétrer les projets pour simplifier l'installation du projet chez le destinataire ?</t>
-  </si>
-  <si>
-    <t>Description de la question</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Fixer l'encodage du projet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Click droit projet &gt; Propriétés &gt; Resources &gt; Text File Encoding : other ----&gt; UTF-8 et New Text File Line Delimiter : other -----&gt; Windows
-A POURSUIVRE</t>
-    </r>
-  </si>
-  <si>
-    <t>servlet-api</t>
-  </si>
-  <si>
-    <t>Quelle stratégie adopter concernant servlet-api.jar dans les projets web Eclipse ?</t>
-  </si>
-  <si>
-    <t>Un projet web avec Servlets a besoin de servlet-api.jar pour fonctionner. Or, le conteneur de Servlet (Tomcat) fournit ce jar.
-Du coup, si on ne fournit pas la librairie servlet-api.jar dans un projet Eclipse, le destinataire verra des erreurs dans son projet Eclipse tant qu'il n'y aura pas importé les librairies de Tomcat.
-Inversement, si on fournit cette librairie et que l'on s'appuie sur la librairie fournie pour écrire les Servlets, quelle sera la librairie servlet-api.jar réellement utilisée lors du déploiement en centre serveur ? Celle du Tomcat du centre serveur ? La librairie fournie ?
-Quelle stratégie adopter concernant servlet-api.jar ?</t>
+    <t>Fournir Servlet-api.3.1.0 (provided) dans Maven juste pour la compilation.
+Préciser au centre serveur que son serveur doit être compatible avec servlet 3.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -314,19 +315,6 @@
       <b/>
       <sz val="10"/>
       <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -384,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -410,6 +398,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -425,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -766,13 +757,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
@@ -789,25 +780,25 @@
         <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
@@ -817,25 +808,23 @@
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="E5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -849,7 +838,7 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="5"/>
@@ -864,7 +853,7 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="5"/>
@@ -880,10 +869,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -896,7 +885,7 @@
       <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="5"/>
@@ -911,67 +900,69 @@
       <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>43</v>
+      <c r="E11" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>PMD</t>
   </si>
@@ -273,6 +273,9 @@
   <si>
     <t>Fournir Servlet-api.3.1.0 (provided) dans Maven juste pour la compilation.
 Préciser au centre serveur que son serveur doit être compatible avec servlet 3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTENTION : l'archétype </t>
   </si>
 </sst>
 </file>
@@ -735,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -856,7 +859,9 @@
       <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>PMD</t>
   </si>
@@ -276,6 +276,21 @@
   </si>
   <si>
     <t xml:space="preserve">ATTENTION : l'archétype </t>
+  </si>
+  <si>
+    <t>Comment bâtir un enchainement de phases (ou Goals) Maven qui permette de cleaner/installer une application sans passer par les tests ?</t>
+  </si>
+  <si>
+    <t>Dans Eclipse, on peut faire un Run As &gt; Maven Build... &gt; Goal : install et cocher "skip tests".
+Comment créer dans le POM un Goal "install sans les tests" qui fasse la même chose ?</t>
+  </si>
+  <si>
+    <t>Comment bâtir un enchainement de phases (ou Goals) Maven qui permette de cleaner/installer une application en générant automatiquement le site à chaque fois ?</t>
+  </si>
+  <si>
+    <t>Dans Eclipse, on peut faire un Run As &gt; Maven Build... &gt; Goal : site.
+On peut également taper en ligne de commande : mvn site
+Comment créer dans le POM un Goal "install avec site" qui fasse la même chose (Clean + Install + site) ?</t>
   </si>
 </sst>
 </file>
@@ -736,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F25"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -863,126 +878,138 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+    <row r="12" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+    <row r="15" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+    <row r="16" spans="2:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -1038,11 +1065,25 @@
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Donnees\eclipse\eclipseworkspace_neon\traficweb_maven\questions_a_traiter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>PMD</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Le tutoriel tutoriel-web-spring-pouiller a été réalisé avec l'archétype Maven "Maven-archetype-webapp". Faut-il suivre cette structure dans le module Web de TraficWeb ? Pourquoi n'a-t-on pas cette structure pour l'instant ?</t>
-  </si>
-  <si>
-    <t>Spring</t>
   </si>
   <si>
     <t>Voir l'intérêt d'utiliser SpringBoot - SpringData</t>
@@ -159,9 +156,6 @@
     <t>Il pourrait être intéressant de tester un controller Servlet sans lancer l'appli web et donc Tomcat. Or, le conteneur de Servlet Tomcat fournit les HttpServletRequest et HttpServletResponse à passer aux méthodes doHead, doGet et doPost du controller Servlet. Comment instancier une HttpServletRequest dans un test unitaire JUnit en lui passant des paramètres ?</t>
   </si>
   <si>
-    <t xml:space="preserve">ACAI préconise l'utilisation de </t>
-  </si>
-  <si>
     <t>Html5 avec doctype Html</t>
   </si>
   <si>
@@ -170,13 +164,6 @@
   </si>
   <si>
     <t>Fil d'Ariane</t>
-  </si>
-  <si>
-    <t>Comment implémenter un fil d'Ariane dans l'application</t>
-  </si>
-  <si>
-    <t>Il peut être intéressant pour les internautes d'implémenter un fil d'ariane en haut de chaque jsp.
-Comment implémenter un fil d'Ariane avec Springweb mvc ?</t>
   </si>
   <si>
     <t>Gestion des exceptions de base de données (serveur de BD éteint, BD inexistante, table inexistante, Doublon dans une base, ….) comme je l'ai déjà fait</t>
@@ -275,9 +262,6 @@
 Préciser au centre serveur que son serveur doit être compatible avec servlet 3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">ATTENTION : l'archétype </t>
-  </si>
-  <si>
     <t>Comment bâtir un enchainement de phases (ou Goals) Maven qui permette de cleaner/installer une application sans passer par les tests ?</t>
   </si>
   <si>
@@ -291,13 +275,45 @@
     <t>Dans Eclipse, on peut faire un Run As &gt; Maven Build... &gt; Goal : site.
 On peut également taper en ligne de commande : mvn site
 Comment créer dans le POM un Goal "install avec site" qui fasse la même chose (Clean + Install + site) ?</t>
+  </si>
+  <si>
+    <t>SPRING</t>
+  </si>
+  <si>
+    <t>Comment faire pour ne pas avoir à déclarer les classes annotées (Entities) dans le persistence-test.xml ?</t>
+  </si>
+  <si>
+    <t>Comment implémenter un fil d'Ariane dans l'application ?</t>
+  </si>
+  <si>
+    <t>KO - NE FONCTIONNE PAS.
+Un nouveau Build Maven peut remettre le JavaSE 1.8</t>
+  </si>
+  <si>
+    <t>ACAI préconise l'utilisation de HTML5</t>
+  </si>
+  <si>
+    <t>ATTENTION : l'archétype  Maven "Maven-archetype-webapp" ne fonctionne absolument pas (Java 5, plugins manquants, …)</t>
+  </si>
+  <si>
+    <t>SPRING - Test</t>
+  </si>
+  <si>
+    <t>Nous utilisons Spring-Test pour pouvoir tester les DAOs avec des tests JUnit.
+Je déclare toujours un applicationContext-test.xml et un persistence-test.xml pour pouvoir utiliser un contexte SPRING différent pour les tests et la prod (base en mémoire HSQLDB, …).
+Je suis obligé de déclarer les entities dans le persistence-test.xml alors que mes entities sont annotées JPA et que ce n'est pas nécessaire en prod (Spring trouve tout seul les entities annotées JPA).
+Comment changer ce comportement ?</t>
+  </si>
+  <si>
+    <t>Il peut être intéressant pour les internautes d'implémenter un fil d'ariane en haut de chaque jsp.
+Comment implémenter un fil d'Ariane avec Spring web mvc ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -333,6 +349,26 @@
       <b/>
       <sz val="10"/>
       <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -390,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -434,7 +470,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -750,17 +798,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="103" style="1" customWidth="1"/>
     <col min="5" max="6" width="80.28515625" style="1" customWidth="1"/>
@@ -775,74 +823,76 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
+      <c r="D6" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -851,17 +901,17 @@
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -872,151 +922,157 @@
         <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>62</v>
+      <c r="C9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>64</v>
+      <c r="C10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>26</v>
+      <c r="E12" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
+      <c r="E14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="16" spans="2:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
+    <row r="18" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
@@ -1080,7 +1136,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>

--- a/questions_a_traiter/Questions_a_traiter.xlsx
+++ b/questions_a_traiter/Questions_a_traiter.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>PMD</t>
   </si>
@@ -308,12 +308,69 @@
     <t>Il peut être intéressant pour les internautes d'implémenter un fil d'ariane en haut de chaque jsp.
 Comment implémenter un fil d'Ariane avec Spring web mvc ?</t>
   </si>
+  <si>
+    <t>Comment tester les DAO ou les SERVICES d'une application SPRING WEB sans déployer sous un serveur TOMCAT ?</t>
+  </si>
+  <si>
+    <t>Il peut être utile de commencer à tester le comportement des DAOs ou SERVICES avant d'avoir des jsp fonctionnelles et sans avoir besoin de lancer l'application sous TOMCAT.
+L'idée serait donc de lancer l'application sous SPRING sans la partie Web et sans avoir besoin de lancer toute l'application sous TOMCAT.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 1 - Créer une copie du applicationContext.xml sous src/main/resources
+ 2 - Retirer les balises liées à Spring-web MVC comme &lt;mvc:annotation-driven&gt; et tout ce qui concerne le WEB et les Servlets/jsp
+ 3 - Activer provisoirement la datasource directe vers Postgres (ou autre) sans passer par JNDI pour fonctionner en Standalone.
+ 4 - Désactiver provisoirement la datasource JNDI (accessible via TOMCAT alors que l'on ne va pas utiliser TOMCAT
+ 5 - Créer une classe avec main()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>String APPLICATIONCONTEXT_PATH = "classpath*:applicationContext.xml";
+AbstractApplicationContext context = new ClassPathXmlApplicationContext(APPLICATIONCONTEXT_PATH);
+serviceUserSimple = (ServiceUserSimple) context.getBean("ServiceUserSimple");
+daoUserSimple  = (IDaoUserSimple)  context.getBean("DaoUserSimple");</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Voir des classes comme AppSpring</t>
+    </r>
+  </si>
+  <si>
+    <t>Pourquoi les transactions fonctionnent-elles dans la méthode create() d'un SERVICE qui utilise plusieurs DAOs pour un objet composé, et pas dans une méthode créer() d'une classe AppSpring qui n'est pas un SERVICE ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Impossible de tester directement les DAO dans une simple classe AppSpring avec un main() à cause d'une Exception :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>No EntityManager with actual transaction available for current thread - cannot reliably process 'persist' call</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -372,8 +429,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,53 +506,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,345 +870,362 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="103" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="80.28515625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="2:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="2:6" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" ht="213" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
